--- a/RedCanariesCVS.xlsx
+++ b/RedCanariesCVS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e986bc6735e2998d/Documents/SQL Server Management Studio/Red Canaries/RedCanariesSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="500" documentId="8_{9D0039C8-1ED1-4B83-997E-60C7D6A18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB30912-3683-4376-92C0-41711917B620}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="8_{9D0039C8-1ED1-4B83-997E-60C7D6A18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA9A871F-56C0-433C-B037-5A9615AD4D36}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="12" r:id="rId1"/>
@@ -2825,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89B31F-21C5-498A-B050-B34ED04921B0}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,7 +3253,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9">
-        <v>13853221140</v>
+        <v>3853221140</v>
       </c>
       <c r="E4" s="10">
         <v>0</v>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1BFEC1-8EDD-457A-92DF-F45DC6D41CAA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RedCanariesCVS.xlsx
+++ b/RedCanariesCVS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e986bc6735e2998d/Documents/SQL Server Management Studio/Red Canaries/RedCanariesSQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="501" documentId="8_{9D0039C8-1ED1-4B83-997E-60C7D6A18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA9A871F-56C0-433C-B037-5A9615AD4D36}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="8_{9D0039C8-1ED1-4B83-997E-60C7D6A18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B132C26-D27D-4E1B-8B57-EBDAF077D060}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
+    <workbookView xWindow="-17505" yWindow="5460" windowWidth="26910" windowHeight="12840" firstSheet="7" activeTab="10" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="12" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="150">
   <si>
     <t>Korbin Dansie</t>
   </si>
@@ -486,6 +486,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Plain old tasteless water</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>4716106967562168</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEFD35D-5EEE-426B-B0FF-581B2910EA6D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,15 +1770,33 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="A6" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
@@ -2122,6 +2152,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3590,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1BFEC1-8EDD-457A-92DF-F45DC6D41CAA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -4224,7 +4255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7AD881-23A8-4D45-B44D-C0C4A6381E6F}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4397,12 +4430,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -4838,7 +4883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544484B3-CB17-4D23-9212-9399CEB8A4B7}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5112,9 +5159,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -5190,7 +5243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7204C9F-236B-445B-90E5-3B47BFB742A2}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5328,8 +5383,12 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>

--- a/RedCanariesCVS.xlsx
+++ b/RedCanariesCVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e986bc6735e2998d/Documents/SQL Server Management Studio/Red Canaries/RedCanariesSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Briel\Desktop\School\Database\RedCanariesSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="8_{9D0039C8-1ED1-4B83-997E-60C7D6A18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B132C26-D27D-4E1B-8B57-EBDAF077D060}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEC724-D917-4DE9-A775-C8D3527764BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17505" yWindow="5460" windowWidth="26910" windowHeight="12840" firstSheet="7" activeTab="10" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="9" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="12" r:id="rId1"/>
@@ -39,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
   <si>
     <t>Korbin Dansie</t>
   </si>
@@ -498,6 +496,12 @@
   </si>
   <si>
     <t>4716106967562168</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melt my face off </t>
   </si>
 </sst>
 </file>
@@ -820,10 +824,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8900C28-E6C4-4E92-88FF-135082FA0CEE}" name="Table1" displayName="Table1" ref="A1:D18" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D18" xr:uid="{E8900C28-E6C4-4E92-88FF-135082FA0CEE}"/>
@@ -1140,12 +1140,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1161,12 +1161,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1183,21 +1183,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A7010F-381C-49B8-BE31-F738978E66CE}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>133</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>134</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>140</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>141</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>142</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>145</v>
       </c>
@@ -1365,15 +1365,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1381,7 +1393,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1389,7 +1401,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1397,7 +1409,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1405,7 +1417,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1413,7 +1425,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1421,7 +1433,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1429,7 +1441,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1437,7 +1449,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1445,7 +1457,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1453,7 +1465,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1461,7 +1473,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1469,7 +1481,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1477,7 +1489,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1485,7 +1497,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1493,7 +1505,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1501,7 +1513,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1509,7 +1521,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1517,7 +1529,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1525,7 +1537,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1533,7 +1545,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1541,7 +1553,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1549,7 +1561,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1557,7 +1569,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1565,7 +1577,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1573,7 +1585,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1581,7 +1593,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1589,7 +1601,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1606,25 +1618,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEFD35D-5EEE-426B-B0FF-581B2910EA6D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="33" customWidth="1"/>
     <col min="8" max="8" width="14" style="33" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="33"/>
+    <col min="9" max="9" width="20.5546875" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>129</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>133</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>134</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>140</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1809,7 +1821,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1820,7 +1832,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1831,7 +1843,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1842,7 +1854,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1853,7 +1865,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1864,7 +1876,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1875,7 +1887,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1886,7 +1898,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1897,7 +1909,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1908,7 +1920,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1919,7 +1931,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1930,7 +1942,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1941,7 +1953,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1952,7 +1964,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1963,7 +1975,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1974,7 +1986,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1985,7 +1997,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1996,7 +2008,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2007,7 +2019,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2018,7 +2030,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2029,7 +2041,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2040,7 +2052,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2051,7 +2063,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="34"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -2062,7 +2074,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2073,7 +2085,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="34"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -2084,7 +2096,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2095,7 +2107,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -2106,7 +2118,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -2117,7 +2129,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="34"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -2128,7 +2140,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2139,7 +2151,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2164,17 +2176,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2214,7 +2226,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="28"/>
@@ -2262,7 +2274,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="27"/>
@@ -2270,7 +2282,7 @@
       <c r="E6" s="27"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="28"/>
@@ -2278,7 +2290,7 @@
       <c r="E7" s="28"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="27"/>
@@ -2286,7 +2298,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="28"/>
@@ -2294,7 +2306,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="27"/>
@@ -2302,7 +2314,7 @@
       <c r="E10" s="27"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="28"/>
@@ -2310,7 +2322,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="27"/>
@@ -2318,7 +2330,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="28"/>
@@ -2326,7 +2338,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="27"/>
@@ -2334,7 +2346,7 @@
       <c r="E14" s="27"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="28"/>
@@ -2342,7 +2354,7 @@
       <c r="E15" s="28"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="27"/>
@@ -2350,7 +2362,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="28"/>
@@ -2358,7 +2370,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="27"/>
@@ -2366,7 +2378,7 @@
       <c r="E18" s="27"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="28"/>
@@ -2374,7 +2386,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="27"/>
@@ -2382,7 +2394,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="28"/>
@@ -2390,7 +2402,7 @@
       <c r="E21" s="28"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="27"/>
@@ -2398,7 +2410,7 @@
       <c r="E22" s="27"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="28"/>
@@ -2406,7 +2418,7 @@
       <c r="E23" s="28"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="27"/>
@@ -2414,7 +2426,7 @@
       <c r="E24" s="27"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="28"/>
@@ -2422,7 +2434,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="27"/>
@@ -2430,7 +2442,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="28"/>
@@ -2438,7 +2450,7 @@
       <c r="E27" s="28"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="27"/>
@@ -2446,7 +2458,7 @@
       <c r="E28" s="27"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="28"/>
@@ -2454,7 +2466,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="27"/>
@@ -2462,7 +2474,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="28"/>
@@ -2470,7 +2482,7 @@
       <c r="E31" s="28"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="27"/>
@@ -2478,7 +2490,7 @@
       <c r="E32" s="27"/>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="28"/>
@@ -2486,7 +2498,7 @@
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="27"/>
@@ -2494,7 +2506,7 @@
       <c r="E34" s="27"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="28"/>
@@ -2502,7 +2514,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="27"/>
@@ -2510,7 +2522,7 @@
       <c r="E36" s="27"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="28"/>
@@ -2518,7 +2530,7 @@
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="29"/>
@@ -2539,15 +2551,15 @@
       <selection activeCell="H28" sqref="H27:H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2631,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>9</v>
       </c>
@@ -2673,175 +2685,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2860,14 +2872,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2985,7 +2997,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2994,7 +3006,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3003,7 +3015,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3012,7 +3024,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3021,7 +3033,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3030,7 +3042,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3039,7 +3051,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -3048,7 +3060,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3057,7 +3069,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -3066,7 +3078,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3075,7 +3087,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -3084,7 +3096,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3093,7 +3105,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3102,7 +3114,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3111,7 +3123,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3120,7 +3132,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3129,7 +3141,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -3138,7 +3150,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3147,7 +3159,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3156,7 +3168,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3165,7 +3177,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3174,7 +3186,7 @@
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3183,7 +3195,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3192,7 +3204,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3201,7 +3213,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3210,7 +3222,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3219,7 +3231,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3228,7 +3240,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3237,7 +3249,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3246,7 +3258,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3255,7 +3267,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3264,7 +3276,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3287,16 +3299,16 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3364,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3381,231 +3393,231 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3625,16 +3637,16 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3668,7 +3680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3702,7 +3714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3719,7 +3731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3753,217 +3765,217 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="16"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3980,18 +3992,18 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4019,7 +4031,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4033,7 +4045,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -4103,7 +4115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -4145,7 +4157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -4159,7 +4171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -4215,7 +4227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -4229,7 +4241,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -4259,17 +4271,17 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -4289,7 +4301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4369,7 +4381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -4389,7 +4401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4429,7 +4441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4457,7 +4469,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4465,7 +4477,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -4473,7 +4485,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4481,7 +4493,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -4489,7 +4501,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4497,7 +4509,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4505,7 +4517,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4513,7 +4525,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4521,7 +4533,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4529,7 +4541,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4537,7 +4549,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -4545,7 +4557,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4553,7 +4565,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4561,7 +4573,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -4569,7 +4581,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4577,7 +4589,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4585,7 +4597,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4593,7 +4605,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4601,7 +4613,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4609,7 +4621,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4617,7 +4629,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -4625,7 +4637,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4633,7 +4645,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4641,7 +4653,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4649,7 +4661,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -4657,7 +4669,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -4665,7 +4677,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -4673,7 +4685,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4692,13 +4704,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -4706,7 +4718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4714,7 +4726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4722,7 +4734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4738,7 +4750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4746,131 +4758,131 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
     </row>
@@ -4887,14 +4899,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4927,7 +4939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4938,7 +4950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4960,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -4971,7 +4983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4982,7 +4994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5015,7 +5027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -5026,7 +5038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5037,7 +5049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5059,7 +5071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>17</v>
       </c>
@@ -5092,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5103,7 +5115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -5114,7 +5126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5136,7 +5148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -5147,7 +5159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -5158,7 +5170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -5169,67 +5181,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -5247,13 +5259,13 @@
       <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -5261,7 +5273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -5269,7 +5281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -5278,7 +5290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -5286,7 +5298,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5294,7 +5306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5310,7 +5322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -5318,7 +5330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -5334,7 +5346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5358,7 +5370,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -5366,7 +5378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5390,87 +5402,87 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
     </row>

--- a/RedCanariesCVS.xlsx
+++ b/RedCanariesCVS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Briel\Desktop\School\Database\RedCanariesSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEC724-D917-4DE9-A775-C8D3527764BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF72221-6FE7-4F7A-AEB8-E6DA9DB7D618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="9" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="10" xr2:uid="{91C680C5-6DE9-4DED-AEC1-AE62BBDA845A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="12" r:id="rId1"/>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A7010F-381C-49B8-BE31-F738978E66CE}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEFD35D-5EEE-426B-B0FF-581B2910EA6D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,7 +1778,7 @@
         <v>144</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
